--- a/UAL/output/dept1705/Yan Han_2022.xlsx
+++ b/UAL/output/dept1705/Yan Han_2022.xlsx
@@ -621,42 +621,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yan Han, Dehui Wang, Zheqi Wang</t>
+          <t>Zonghua Qu, Chunling Wei, Yan Han</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>School of Mathematics, Jilin University, Changchun, People's Republic of China; School of Mathematics and Statistics, Liaoning University, Shenyang, People's Republic of China; School of Mathematics, Jilin University, Changchun, People's Republic of China</t>
+          <t>Science and Technology on Space Intelligent Control Laboratory, Beijing Institute of Control Engineering, China; Science and Technology on Space Intelligent Control Laboratory, Beijing Institute of Control Engineering, China; Science and Technology on Space Intelligent Control Laboratory, Beijing Institute of Control Engineering, China</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4308968759</t>
+          <t>https://openalex.org/W4377236356</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>First-order binomial autoregressive processes with Markov-switching coefficients</t>
+          <t>A Method of Spacecraft Orbit Anomaly Discrimination Based on Long Short-Term Memory Network</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Journal of Statistical Computation and Simulation</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Taylor &amp; Francis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/00949655.2022.2138884</t>
+          <t>https://doi.org/10.1145/3581807.3581891</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/00949655.2022.2138884</t>
+          <t>https://doi.org/10.1145/3581807.3581891</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -708,42 +708,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Zonghua Qu, Chunling Wei, Yan Han</t>
+          <t>Yan Han, Dehui Wang, Zheqi Wang</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Science and Technology on Space Intelligent Control Laboratory, Beijing Institute of Control Engineering, China; Science and Technology on Space Intelligent Control Laboratory, Beijing Institute of Control Engineering, China; Science and Technology on Space Intelligent Control Laboratory, Beijing Institute of Control Engineering, China</t>
+          <t>School of Mathematics, Jilin University, Changchun, People's Republic of China; School of Mathematics and Statistics, Liaoning University, Shenyang, People's Republic of China; School of Mathematics, Jilin University, Changchun, People's Republic of China</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4377236356</t>
+          <t>https://openalex.org/W4308968759</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A Method of Spacecraft Orbit Anomaly Discrimination Based on Long Short-Term Memory Network</t>
+          <t>First-order binomial autoregressive processes with Markov-switching coefficients</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Statistical Computation and Simulation</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Taylor &amp; Francis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3581807.3581891</t>
+          <t>https://doi.org/10.1080/00949655.2022.2138884</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3581807.3581891</t>
+          <t>https://doi.org/10.1080/00949655.2022.2138884</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
